--- a/xtt_demo/ZXXT_DEMO_140_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_140_R.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7833450-F01E-44E6-BAB1-3C6F30CCBCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8ECADE-8345-4AA2-9D52-E6754C494144}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD9765B2-999D-488B-95F5-A558A73EE175}"/>
   </bookViews>
@@ -301,7 +301,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,7 +357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -463,7 +463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -615,9 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAE5BAA-5943-423A-91C9-46DCD0649A5F}">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
